--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -16,15 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>№ таска</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Что сделать</t>
   </si>
   <si>
     <t>Создать представление для отображения машины + подкорректировать ссылки меню</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Готово</t>
+  </si>
+  <si>
+    <t>№ таск</t>
   </si>
 </sst>
 </file>
@@ -41,12 +47,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,14 +73,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,55 +382,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:E8"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:6">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="15" customHeight="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="3:5" ht="15" customHeight="1">
-      <c r="C4">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="3:6">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:6">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:6">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Что сделать</t>
   </si>
@@ -31,6 +31,36 @@
   </si>
   <si>
     <t>№ таск</t>
+  </si>
+  <si>
+    <t>Создать табличку DescriptionCar</t>
+  </si>
+  <si>
+    <t>Вывод полей на вью Добавление машини</t>
+  </si>
+  <si>
+    <t>Добавить модель DescriptionCar ( idCar, description)</t>
+  </si>
+  <si>
+    <t>Пагинация</t>
+  </si>
+  <si>
+    <t>Загрузка и отображение картинки</t>
+  </si>
+  <si>
+    <t>просмотр картинки при загрузке</t>
+  </si>
+  <si>
+    <t>отдельная страничка, что сделано, что планируется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пагинация для других станиц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">отображения 6 и 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сущность для страницы что выше </t>
   </si>
 </sst>
 </file>
@@ -76,18 +106,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F8"/>
+  <dimension ref="C2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,49 +421,130 @@
     <col min="5" max="5" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:9">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="3:9">
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" ht="15" customHeight="1">
-      <c r="C4" s="4">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="3:9" ht="15" customHeight="1">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Что сделать</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">сущность для страницы что выше </t>
+  </si>
+  <si>
+    <t>может добавить модальное окно</t>
   </si>
 </sst>
 </file>
@@ -496,6 +499,9 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="1">

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -57,13 +57,13 @@
     <t xml:space="preserve">пагинация для других станиц </t>
   </si>
   <si>
-    <t xml:space="preserve">отображения 6 и 12 </t>
-  </si>
-  <si>
     <t xml:space="preserve">сущность для страницы что выше </t>
   </si>
   <si>
     <t>может добавить модальное окно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображения 6 и 12 </t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="C2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -529,22 +529,21 @@
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
